--- a/Formação Ciência de Dados.xlsx
+++ b/Formação Ciência de Dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="262" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{39D26AAD-D541-484A-97E9-F4FE6F2C1220}"/>
+  <xr:revisionPtr revIDLastSave="268" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09115E0-290A-48A1-9650-CB92C5418F57}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1024,7 +1024,9 @@
         <v>2</v>
       </c>
       <c r="K2" s="9"/>
-      <c r="L2" s="8"/>
+      <c r="L2" s="8">
+        <v>0.75</v>
+      </c>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>

--- a/Formação Ciência de Dados.xlsx
+++ b/Formação Ciência de Dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="268" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B09115E0-290A-48A1-9650-CB92C5418F57}"/>
+  <xr:revisionPtr revIDLastSave="269" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0411358-33EA-41D3-AF1F-81C46297F8DA}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,7 +947,7 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1027,7 +1027,9 @@
       <c r="L2" s="8">
         <v>0.75</v>
       </c>
-      <c r="M2" s="8"/>
+      <c r="M2" s="8">
+        <v>3</v>
+      </c>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>

--- a/Formação Ciência de Dados.xlsx
+++ b/Formação Ciência de Dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="269" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0411358-33EA-41D3-AF1F-81C46297F8DA}"/>
+  <xr:revisionPtr revIDLastSave="270" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD9033B-926E-4B24-B236-7AB49F202D03}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,7 +947,7 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1061,7 +1061,9 @@
       <c r="L3" s="8">
         <v>2</v>
       </c>
-      <c r="M3" s="8"/>
+      <c r="M3" s="8">
+        <v>1</v>
+      </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>

--- a/Formação Ciência de Dados.xlsx
+++ b/Formação Ciência de Dados.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28816"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="270" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4BD9033B-926E-4B24-B236-7AB49F202D03}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301DA0DE-62B5-4BF4-A467-DED1660BC84D}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -947,7 +947,7 @@
   <dimension ref="B1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,7 +1030,9 @@
       <c r="M2" s="8">
         <v>3</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
@@ -1064,7 +1066,9 @@
       <c r="M3" s="8">
         <v>1</v>
       </c>
-      <c r="N3" s="8"/>
+      <c r="N3" s="8">
+        <v>2</v>
+      </c>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>

--- a/Formação Ciência de Dados.xlsx
+++ b/Formação Ciência de Dados.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28830"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="272" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{301DA0DE-62B5-4BF4-A467-DED1660BC84D}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="11_7F4755BF84DCCE43E268565A8931F45BFA75341E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3073EF85-A031-4192-8308-D2543D5FAEE4}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>Curso</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>Power BI Fundamentals</t>
+  </si>
+  <si>
+    <t>2h</t>
   </si>
   <si>
     <t>1.5</t>
@@ -944,10 +947,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362FEDA5-3433-4AB8-9221-93E1A34DE9AC}">
-  <dimension ref="B1:Q24"/>
+  <dimension ref="B1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1069,7 +1072,9 @@
       <c r="N3" s="8">
         <v>2</v>
       </c>
-      <c r="O3" s="8"/>
+      <c r="O3" s="8">
+        <v>2</v>
+      </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
@@ -1078,43 +1083,38 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="I4" s="7" t="s">
-        <v>35</v>
-      </c>
+      <c r="I4" s="7"/>
       <c r="K4" s="9"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
+      <c r="O4" s="8">
+        <v>2</v>
+      </c>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
     <row r="5" spans="2:17">
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="I5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="K5" s="8"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
@@ -1127,7 +1127,7 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
         <v>28</v>
@@ -1136,7 +1136,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="7" spans="2:17">
       <c r="B7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
         <v>28</v>
@@ -1159,8 +1159,8 @@
       <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
+      <c r="F7" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
@@ -1175,7 +1175,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
         <v>28</v>
@@ -1183,25 +1183,32 @@
       <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>43</v>
-      </c>
+      <c r="F8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
     <row r="9" spans="2:17">
       <c r="B9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -1209,24 +1216,24 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="11" spans="2:17">
       <c r="B11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
         <v>28</v>
@@ -1235,32 +1242,32 @@
         <v>29</v>
       </c>
       <c r="F11" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
         <v>28</v>
@@ -1268,16 +1275,16 @@
       <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>54</v>
+      <c r="F17" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>28</v>
@@ -1285,16 +1292,16 @@
       <c r="E18" t="s">
         <v>29</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>56</v>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
         <v>28</v>
@@ -1302,94 +1309,111 @@
       <c r="E19" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>58</v>
+      <c r="F19" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="D20" t="s">
-        <v>45</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22">
         <v>15</v>
       </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="C22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="2:6">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" t="s">
+        <v>46</v>
+      </c>
       <c r="F22" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="2:6" ht="29.25">
-      <c r="B23">
+    <row r="23" spans="2:6">
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="29.25">
+      <c r="B24">
         <v>16</v>
       </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E24" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" ht="29.25">
-      <c r="B24" t="s">
+      <c r="F24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+    </row>
+    <row r="25" spans="2:6" ht="29.25">
+      <c r="B25" t="s">
         <v>68</v>
       </c>
-      <c r="D24" t="s">
+      <c r="C25" t="s">
         <v>69</v>
       </c>
-      <c r="E24" t="s">
-        <v>69</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="D25" t="s">
         <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{5C807CD1-136B-4FA3-AF7D-D22932C636F5}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{DA1ED7E0-37B3-4BA2-A0E5-2FAD7EA00031}"/>
-    <hyperlink ref="F11" r:id="rId3" xr:uid="{8D3E9D51-74E8-4D44-98D8-A4C0BA8C79EB}"/>
+    <hyperlink ref="F6" r:id="rId2" xr:uid="{DA1ED7E0-37B3-4BA2-A0E5-2FAD7EA00031}"/>
+    <hyperlink ref="F12" r:id="rId3" xr:uid="{8D3E9D51-74E8-4D44-98D8-A4C0BA8C79EB}"/>
     <hyperlink ref="F3" r:id="rId4" xr:uid="{37412870-78DD-4465-89C6-91F6222A5755}"/>
-    <hyperlink ref="F6" r:id="rId5" xr:uid="{46175221-6D45-46AA-BD7B-E6F35BAAAD23}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{1325C98A-A0AC-44CE-8739-A3672EFFE524}"/>
-    <hyperlink ref="F10" r:id="rId7" xr:uid="{7313BBFA-097A-404F-986A-F99304C5CC33}"/>
-    <hyperlink ref="F16" r:id="rId8" xr:uid="{F489DFF5-266C-4A9B-B363-28798D5A0952}"/>
-    <hyperlink ref="F18" r:id="rId9" xr:uid="{72C3811C-EEFD-40D6-8674-22D1007241EF}"/>
+    <hyperlink ref="F7" r:id="rId5" xr:uid="{46175221-6D45-46AA-BD7B-E6F35BAAAD23}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{1325C98A-A0AC-44CE-8739-A3672EFFE524}"/>
+    <hyperlink ref="F11" r:id="rId7" xr:uid="{7313BBFA-097A-404F-986A-F99304C5CC33}"/>
+    <hyperlink ref="F17" r:id="rId8" xr:uid="{F489DFF5-266C-4A9B-B363-28798D5A0952}"/>
+    <hyperlink ref="F19" r:id="rId9" xr:uid="{72C3811C-EEFD-40D6-8674-22D1007241EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1411,7 +1435,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="57.75" customHeight="1">
       <c r="A1" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2"/>
     </row>
@@ -1421,10 +1445,10 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="29.25">
@@ -1432,7 +1456,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="29.25">
@@ -1440,7 +1464,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="43.5">
@@ -1448,23 +1472,23 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="43.5">
       <c r="A7" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="43.5">
       <c r="A8" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="43.5">
@@ -1472,23 +1496,23 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="43.5">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="43.5">
       <c r="A11" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -1512,43 +1536,43 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="72.75">
       <c r="B7" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="19.5" customHeight="1"/>
